--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentaro/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E317D337-50CB-AB44-8F1C-2198230745BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D804E14-6BDA-264D-B23A-7AAE0EB22FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="25760" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -31,51 +31,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-03-05</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-02-18</t>
-  </si>
-  <si>
-    <t>2023-01-28</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
-  </si>
-  <si>
-    <t>2023-01-24</t>
-  </si>
-  <si>
-    <t>2023-02-12</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>2023-03-04</t>
-  </si>
-  <si>
     <t>組織診の結果、体部類内膜癌、Stage IVBと診断。 抗凝固薬（イグザレルト）服用中</t>
   </si>
   <si>
@@ -131,12 +86,879 @@
   </si>
   <si>
     <t>術後化学療法としてDTX+CBDCAを開始。</t>
+  </si>
+  <si>
+    <t>組織診の結果、卵巣腫瘍、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間131分、出血量622ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 9.8%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTC療法を開始。 高度肥満（BMI 34.7）</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly PTXを開始。</t>
+  </si>
+  <si>
+    <t>生検の結果、卵巣腫瘍、Stage IIAと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間127分、出血量68ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 7.6%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+  </si>
+  <si>
+    <t>術後化学療法として毎週パクリタキセルを開始。</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮体部癌、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間327分、出血量565ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 高度肥満（BMI 39.8）</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、卵巣腫瘍、Stage ICと診断。 腎機能低下（Cr 2.8 mg/dl）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間147分、出血量426ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 53%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮頚癌、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 46%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間303分、出血量621ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDC療法を開始。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてwPTXを開始。</t>
+  </si>
+  <si>
+    <t>組織診の結果、卵巣がん、Stage IIIAと診断。 心機能低下（EF 32%）あり</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮摘出術の方針。 心機能低下（EF 38%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間189分、出血量361ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDC療法を開始。 心機能低下（EF 35%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTC療法を開始。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、子宮内膜癌、Stage IVBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間205分、出血量180ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、体部類内膜癌、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮摘出術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間179分、出血量293ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、頸部扁平上皮癌、Stage ICと診断。 腎機能低下（Cr 1.6 mg/dl）</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮全摘出術の方針。 高度肥満（BMI 35.0）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間189分、出血量122ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてPTX+CBDCAを開始。</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮体部類内膜癌、Stage IBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間145分、出血量685ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。 抗凝固薬（イグザレルト）服用中</t>
+  </si>
+  <si>
+    <t>組織生検の結果、子宮体部類内膜癌、Stage IIIAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間313分、出血量946ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、頸部扁平上皮癌、Stage IIICと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下全摘術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間146分、出血量216ml。</t>
+  </si>
+  <si>
+    <t>組織生検の結果、子宮頸がん、Stage IVCと診断。 抗凝固薬（エリキュース）服用中</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下全摘術の方針。 高度肥満（BMI 39.2）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間204分、出血量409ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、子宮体部類内膜癌、Stage IICと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘出術施行。手術時間162分、出血量970ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 心機能低下（EF 52%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDCを開始。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、子宮頸部癌、Stage IIIAと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮摘出術の方針。 高度肥満（BMI 32.5）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間281分、出血量406ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDC療法を開始。 腎機能低下（Cr 2.1 mg/dl）</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、漿液性卵巣癌、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 2.8 mg/dl）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間130分、出血量903ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてwPTXを開始。 心機能低下（EF 39%）あり</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮体がん、Stage IVCと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮摘出術の方針。 高度肥満（BMI 34.2）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間225分、出血量170ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly パクリタキセルを開始。 抗凝固薬（エリキュース）服用中</t>
+  </si>
+  <si>
+    <t>生検の結果、頚部腺癌、Stage IIICと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間159分、出血量320ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法として毎週パクリタキセルを開始。 腎機能低下（Cr 1.7 mg/dl）</t>
+  </si>
+  <si>
+    <t>術後化学療法としてPTX+CBDCAを開始。 腎機能低下（Cr 2.1 mg/dl）</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮頚癌、Stage IIBと診断。 抗凝固薬（ワーファリン）服用中</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間130分、出血量128ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly PTXを開始。 心機能低下（EF 45%）あり</t>
+  </si>
+  <si>
+    <t>組織診断の結果、子宮体部類内膜癌、Stage IICと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間203分、出血量724ml。</t>
+  </si>
+  <si>
+    <t>組織生検の結果、頚部腺癌、Stage IIAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間264分、出血量695ml。</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮体部癌、Stage IBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘出術施行。手術時間326分、出血量543ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDCを開始。 心機能低下（EF 46%）あり</t>
+  </si>
+  <si>
+    <t>組織診断の結果、高異型度漿液性癌、Stage IVBと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮全摘出術の方針。 糖尿病（HbA1c 9.8%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間339分、出血量516ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 抗凝固薬（ワーファリン）服用中</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮頸がん、Stage IICと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘出術施行。手術時間247分、出血量127ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてPTX+CBDCAを開始。 心機能低下（EF 37%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法として毎週パクリタキセルを開始。 抗凝固薬（エリキュース）服用中</t>
+  </si>
+  <si>
+    <t>生検の結果、卵巣がん、Stage IIIAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間318分、出血量644ml。</t>
+  </si>
+  <si>
+    <t>生検の結果、体部類内膜癌、Stage IICと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間295分、出血量223ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、卵巣癌、Stage IIAと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 糖尿病（HbA1c 9.2%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間137分、出血量607ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、子宮頸がん、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中</t>
+  </si>
+  <si>
+    <t>治療方針：開腹全摘術の方針。 抗凝固薬（イグザレルト）服用中</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間348分、出血量176ml。</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮頸癌、Stage IVCと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮全摘出術の方針。 高度肥満（BMI 30.2）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間223分、出血量442ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDC療法を開始。 心機能低下（EF 46%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.7 mg/dl）</t>
+  </si>
+  <si>
+    <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 糖尿病（HbA1c 8.9%）あり</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、子宮頸癌、Stage ICと診断。 高度肥満（BMI 34.8）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間132分、出血量152ml。</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮頸癌、Stage IIBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間340分、出血量500ml。</t>
+  </si>
+  <si>
+    <t>組織生検の結果、子宮体部癌、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間285分、出血量519ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、高異型度漿液性癌、Stage IAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘出術施行。手術時間222分、出血量907ml。</t>
+  </si>
+  <si>
+    <t>組織診断の結果、子宮体部類内膜癌、Stage IAと診断。 心機能低下（EF 50%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間295分、出血量917ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、頸部扁平上皮癌、Stage IBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間359分、出血量869ml。</t>
+  </si>
+  <si>
+    <t>生検の結果、明細胞癌、Stage IVBと診断。 腎機能低下（Cr 2.6 mg/dl）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間344分、出血量73ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 高度肥満（BMI 32.8）</t>
+  </si>
+  <si>
+    <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.9 mg/dl）</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。 腎機能低下（Cr 2.3 mg/dl）</t>
+  </si>
+  <si>
+    <t>組織生検の結果、子宮体部類内膜癌、Stage IBと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮摘出術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間148分、出血量579ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮内膜癌、Stage ICと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間302分、出血量679ml。</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮頸癌、Stage IBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間329分、出血量76ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、卵巣癌、Stage IIIAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間264分、出血量423ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、子宮頸がん、Stage IAと診断。 心機能低下（EF 38%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間146分、出血量313ml。</t>
+  </si>
+  <si>
+    <t>組織診の結果、頸部扁平上皮癌、Stage IIBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間138分、出血量755ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、卵巣癌、Stage IICと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間347分、出血量574ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、子宮体がん、Stage IIAと診断。 糖尿病（HbA1c 7.6%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間184分、出血量779ml。</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮頸がん、Stage IAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間220分、出血量59ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、子宮体癌、Stage IVBと診断。 高度肥満（BMI 36.2）</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮全摘出術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間299分、出血量431ml。</t>
+  </si>
+  <si>
+    <t>組織診断の結果、頚部腺癌、Stage IVBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間216分、出血量450ml。</t>
+  </si>
+  <si>
+    <t>組織診断の結果、卵巣がん、Stage IVCと診断。 心機能低下（EF 38%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間132分、出血量284ml。</t>
+  </si>
+  <si>
+    <t>組織生検の結果、子宮頸がん、Stage ICと診断。 腎機能低下（Cr 1.5 mg/dl）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間228分、出血量631ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDCを開始。 抗凝固薬（エリキュース）服用中</t>
+  </si>
+  <si>
+    <t>組織生検の結果、卵巣がん、Stage IIBと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮摘出術の方針。 糖尿病（HbA1c 8.3%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間266分、出血量211ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDCを開始。 腎機能低下（Cr 1.5 mg/dl）</t>
+  </si>
+  <si>
+    <t>術後化学療法としてwPTXを開始。 糖尿病（HbA1c 8.9%）あり</t>
+  </si>
+  <si>
+    <t>生検の結果、卵巣がん、Stage IIIBと診断。 心機能低下（EF 30%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間207分、出血量335ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。 心機能低下（EF 48%）あり</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮内膜癌、Stage IIAと診断。 心機能低下（EF 37%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘出術施行。手術時間136分、出血量991ml。</t>
+  </si>
+  <si>
+    <t>組織診断の結果、卵巣癌、Stage IIICと診断。 高度肥満（BMI 33.7）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間327分、出血量974ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDC療法を開始。 心機能低下（EF 32%）あり</t>
+  </si>
+  <si>
+    <t>組織診断の結果、子宮体癌、Stage IVBと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：開腹全摘術の方針。 糖尿病（HbA1c 6.8%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間142分、出血量899ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、子宮頸部癌、Stage ICと診断。 糖尿病（HbA1c 8.2%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間308分、出血量510ml。</t>
+  </si>
+  <si>
+    <t>生検の結果、体部類内膜癌、Stage IIIBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間256分、出血量415ml。</t>
+  </si>
+  <si>
+    <t>組織診断の結果、子宮内膜癌、Stage IIBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間338分、出血量714ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてwPTXを開始。 糖尿病（HbA1c 7.7%）あり</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮頸部癌、Stage IIIAと診断。 高度肥満（BMI 33.3）</t>
+  </si>
+  <si>
+    <t>治療方針：開腹全摘術の方針。 抗凝固薬（プラザキサ）服用中</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間331分、出血量558ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 54%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてPTX+CBDCAを開始。 抗凝固薬（プラザキサ）服用中</t>
+  </si>
+  <si>
+    <t>組織診断の結果、子宮体部癌、Stage IIBと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮全摘の方針。 高度肥満（BMI 39.4）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間154分、出血量972ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly パクリタキセルを開始。 腎機能低下（Cr 2.5 mg/dl）</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDCを開始。 抗凝固薬（プラザキサ）服用中</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、体部類内膜癌、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間130分、出血量396ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly PTXを開始。 心機能低下（EF 54%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 抗凝固薬（エリキュース）服用中</t>
+  </si>
+  <si>
+    <t>組織生検の結果、卵巣がん、Stage IIBと診断。 高度肥満（BMI 39.1）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間271分、出血量332ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDC療法を開始。 腎機能低下（Cr 2.5 mg/dl）</t>
+  </si>
+  <si>
+    <t>生検の結果、明細胞癌、Stage IAと診断。 糖尿病（HbA1c 8.4%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間266分、出血量100ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、卵巣腫瘍、Stage IIBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間334分、出血量337ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、卵巣腫瘍、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間248分、出血量87ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。 糖尿病（HbA1c 8.2%）あり</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、子宮頸がん、Stage IBと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。 心機能低下（EF 33%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間344分、出血量220ml。</t>
+  </si>
+  <si>
+    <t>組織生検の結果、頚部腺癌、Stage IBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間329分、出血量623ml。</t>
+  </si>
+  <si>
+    <t>組織診の結果、高異型度漿液性癌、Stage IIIBと診断。 抗凝固薬（ワーファリン）服用中</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間329分、出血量528ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてPTX+CBDCAを開始。 糖尿病（HbA1c 8.7%）あり</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、卵巣腫瘍、Stage IIICと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 高度肥満（BMI 39.1）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間356分、出血量583ml。</t>
+  </si>
+  <si>
+    <t>組織診断の結果、子宮体部癌、Stage IBと診断。 腎機能低下（Cr 2.6 mg/dl）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間234分、出血量695ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてPTX+CBDCAを開始。 高度肥満（BMI 30.8）</t>
+  </si>
+  <si>
+    <t>生検の結果、頚部腺癌、Stage IICと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（ワーファリン）服用中</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間168分、出血量467ml。</t>
+  </si>
+  <si>
+    <t>生検の結果、卵巣腫瘍、Stage IAと診断。 高度肥満（BMI 30.8）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間352分、出血量700ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTC療法を開始。 腎機能低下（Cr 1.7 mg/dl）</t>
+  </si>
+  <si>
+    <t>組織診断の結果、子宮頸癌、Stage IVBと診断。 腎機能低下（Cr 2.2 mg/dl）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間196分、出血量389ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDCを開始。 糖尿病（HbA1c 6.9%）あり</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、頸部扁平上皮癌、Stage IVCと診断。 腎機能低下（Cr 2.5 mg/dl）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘出術施行。手術時間231分、出血量547ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法として毎週パクリタキセルを開始。 高度肥満（BMI 36.9）</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、子宮内膜癌、Stage ICと診断。 抗凝固薬（ワーファリン）服用中</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間163分、出血量564ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてwPTXを開始。 糖尿病（HbA1c 7.2%）あり</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮体癌、Stage IBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間221分、出血量956ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 高度肥満（BMI 33.1）</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮頸がん、Stage IIAと診断。 抗凝固薬（ワーファリン）服用中</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮全摘出術の方針。 抗凝固薬（エリキュース）服用中</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間289分、出血量294ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.6 mg/dl）</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮頚癌、Stage IVBと診断。 高度肥満（BMI 39.4）</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 高度肥満（BMI 33.0）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間297分、出血量922ml。</t>
+  </si>
+  <si>
+    <t>組織診断の結果、卵巣がん、Stage ICと診断。 心機能低下（EF 39%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間172分、出血量369ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTC療法を開始。 腎機能低下（Cr 2.4 mg/dl）</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、子宮頚癌、Stage IICと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間246分、出血量937ml。</t>
+  </si>
+  <si>
+    <t>組織生検の結果、子宮体がん、Stage IIICと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮全摘出術の方針。 心機能低下（EF 33%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間343分、出血量59ml。</t>
+  </si>
+  <si>
+    <t>組織生検の結果、子宮頸部癌、Stage IIIBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間335分、出血量872ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。 抗凝固薬（プラザキサ）服用中</t>
+  </si>
+  <si>
+    <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.5 mg/dl）</t>
+  </si>
+  <si>
+    <t>組織診の結果、体部類内膜癌、Stage IIIAと診断。 高度肥満（BMI 36.5）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間331分、出血量309ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、卵巣癌、Stage IIIAと診断。 高度肥満（BMI 32.7）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間349分、出血量624ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、子宮体がん、Stage IIIBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間356分、出血量685ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDC療法を開始。 糖尿病（HbA1c 8.3%）あり</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、子宮頸癌、Stage IIAと診断。 高度肥満（BMI 30.6）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘施行。手術時間307分、出血量682ml。</t>
+  </si>
+  <si>
+    <t>組織診断の結果、子宮体部類内膜癌、Stage ICと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間320分、出血量479ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、頚部腺癌、Stage IIICと診断。 高度肥満（BMI 39.2）</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間123分、出血量434ml。</t>
+  </si>
+  <si>
+    <t>組織生検の結果、子宮体部類内膜癌、Stage IAと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下全摘術の方針。 腎機能低下（Cr 2.7 mg/dl）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹全摘術施行。手術時間234分、出血量299ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。 糖尿病（HbA1c 9.2%）あり</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮内膜癌、Stage IIBと診断。 糖尿病（HbA1c 6.7%）あり</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮全摘の方針。 抗凝固薬（プラザキサ）服用中</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間294分、出血量441ml。</t>
+  </si>
+  <si>
+    <t>組織診断の結果、子宮体部類内膜癌、Stage IIIAと診断。 心機能低下（EF 52%）あり</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 48%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間242分、出血量612ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。 腎機能低下（Cr 2.0 mg/dl）</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、頚部腺癌、Stage IVCと診断。 心機能低下（EF 48%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間154分、出血量496ml。</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、体部類内膜癌、Stage IICと診断。 腎機能低下（Cr 2.5 mg/dl）</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間128分、出血量813ml。</t>
+  </si>
+  <si>
+    <t>組織診の結果、頸部扁平上皮癌、Stage IIIBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘出術施行。手術時間201分、出血量372ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。 高度肥満（BMI 32.1）</t>
+  </si>
+  <si>
+    <t>術後化学療法としてwPTXを開始。 心機能低下（EF 46%）あり</t>
+  </si>
+  <si>
+    <t>内膜組織診の結果、子宮頸癌、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>治療方針：開腹全摘術の方針。 糖尿病（HbA1c 6.7%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下全摘術施行。手術時間299分、出血量160ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてPTX+CBDCAを開始。 心機能低下（EF 50%）あり</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮体がん、Stage IVBと診断。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間124分、出血量161ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてwPTXを開始。 抗凝固薬（エリキュース）服用中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -148,10 +970,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -196,11 +1017,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -219,9 +1041,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +1081,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -293,7 +1115,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,10 +1149,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,16 +1325,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C13:C14"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -531,224 +1348,5383 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>44937</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2">
+        <v>44977</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2">
+        <v>44990</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2">
+        <v>44998</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8" s="2">
+        <v>44927</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9" s="2">
+        <v>44956</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10" s="2">
+        <v>44975</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11" s="2">
+        <v>44927</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B12" s="2">
+        <v>44954</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
+      <c r="B13" s="2">
+        <v>44973</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
+      <c r="B14" s="2">
+        <v>44927</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
+      <c r="B15" s="2">
+        <v>44950</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16" s="2">
+        <v>44969</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
+      <c r="B17" s="2">
+        <v>44978</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
+      <c r="B18" s="2">
+        <v>44927</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
+      <c r="B19" s="2">
+        <v>44951</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
+      <c r="B20" s="2">
+        <v>44967</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2">
+        <v>44989</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44942</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44960</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44982</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44994</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45006</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45032</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44978</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44995</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45008</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44939</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44942</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44973</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44952</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45015</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45036</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44948</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45003</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45033</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44965</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>14</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44944</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44972</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>14</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44979</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44979</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44997</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>16</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>16</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>16</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44981</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45005</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45017</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>16</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45031</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B77" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44947</v>
+      </c>
+      <c r="C78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>17</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>18</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>18</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44968</v>
+      </c>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>18</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44985</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45007</v>
+      </c>
+      <c r="C84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>19</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>19</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44934</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>19</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44960</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>19</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>19</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44999</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>19</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45012</v>
+      </c>
+      <c r="C90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>19</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45028</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>20</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>20</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44944</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>20</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>20</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>20</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44992</v>
+      </c>
+      <c r="C96" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>20</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45020</v>
+      </c>
+      <c r="C97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>20</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45040</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>21</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>21</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44937</v>
+      </c>
+      <c r="C100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>21</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44946</v>
+      </c>
+      <c r="C101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>21</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44975</v>
+      </c>
+      <c r="C102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>21</v>
+      </c>
+      <c r="B103" s="2">
+        <v>44987</v>
+      </c>
+      <c r="C103" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>21</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45013</v>
+      </c>
+      <c r="C104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>21</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45041</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>22</v>
+      </c>
+      <c r="B106" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>22</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C107" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>22</v>
+      </c>
+      <c r="B108" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>22</v>
+      </c>
+      <c r="B109" s="2">
+        <v>44994</v>
+      </c>
+      <c r="C109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>22</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45007</v>
+      </c>
+      <c r="C110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>22</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45031</v>
+      </c>
+      <c r="C111" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>23</v>
+      </c>
+      <c r="B112" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C112" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>23</v>
+      </c>
+      <c r="B113" s="2">
+        <v>44946</v>
+      </c>
+      <c r="C113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>23</v>
+      </c>
+      <c r="B114" s="2">
+        <v>44964</v>
+      </c>
+      <c r="C114" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>23</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>23</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45014</v>
+      </c>
+      <c r="C116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>23</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45040</v>
+      </c>
+      <c r="C117" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>24</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C118" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>24</v>
+      </c>
+      <c r="B119" s="2">
+        <v>44941</v>
+      </c>
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>24</v>
+      </c>
+      <c r="B120" s="2">
+        <v>44949</v>
+      </c>
+      <c r="C120" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>24</v>
+      </c>
+      <c r="B121" s="2">
+        <v>44974</v>
+      </c>
+      <c r="C121" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>24</v>
+      </c>
+      <c r="B122" s="2">
+        <v>44999</v>
+      </c>
+      <c r="C122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>24</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45007</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>24</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45029</v>
+      </c>
+      <c r="C124" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>25</v>
+      </c>
+      <c r="B125" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C125" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>25</v>
+      </c>
+      <c r="B126" s="2">
+        <v>44952</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>25</v>
+      </c>
+      <c r="B127" s="2">
+        <v>44982</v>
+      </c>
+      <c r="C127" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>25</v>
+      </c>
+      <c r="B128" s="2">
+        <v>44995</v>
+      </c>
+      <c r="C128" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>26</v>
+      </c>
+      <c r="B129" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C129" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>26</v>
+      </c>
+      <c r="B130" s="2">
+        <v>44945</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>26</v>
+      </c>
+      <c r="B131" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C131" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>26</v>
+      </c>
+      <c r="B132" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>26</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45006</v>
+      </c>
+      <c r="C133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>26</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45013</v>
+      </c>
+      <c r="C134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>27</v>
+      </c>
+      <c r="B135" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>27</v>
+      </c>
+      <c r="B136" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>27</v>
+      </c>
+      <c r="B137" s="2">
+        <v>44960</v>
+      </c>
+      <c r="C137" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>27</v>
+      </c>
+      <c r="B138" s="2">
+        <v>44979</v>
+      </c>
+      <c r="C138" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>27</v>
+      </c>
+      <c r="B139" s="2">
+        <v>44989</v>
+      </c>
+      <c r="C139" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>28</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>28</v>
+      </c>
+      <c r="B141" s="2">
+        <v>44935</v>
+      </c>
+      <c r="C141" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>28</v>
+      </c>
+      <c r="B142" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>28</v>
+      </c>
+      <c r="B143" s="2">
+        <v>44977</v>
+      </c>
+      <c r="C143" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>28</v>
+      </c>
+      <c r="B144" s="2">
+        <v>44992</v>
+      </c>
+      <c r="C144" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>28</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45012</v>
+      </c>
+      <c r="C145" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>28</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45039</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>29</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C147" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>29</v>
+      </c>
+      <c r="B148" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C148" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>29</v>
+      </c>
+      <c r="B149" s="2">
+        <v>44966</v>
+      </c>
+      <c r="C149" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>29</v>
+      </c>
+      <c r="B150" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C150" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>29</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45006</v>
+      </c>
+      <c r="C151" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>29</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45036</v>
+      </c>
+      <c r="C152" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>29</v>
+      </c>
+      <c r="B153" s="2">
+        <v>45062</v>
+      </c>
+      <c r="C153" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>30</v>
+      </c>
+      <c r="B154" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C154" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>30</v>
+      </c>
+      <c r="B155" s="2">
+        <v>44946</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>30</v>
+      </c>
+      <c r="B156" s="2">
+        <v>44973</v>
+      </c>
+      <c r="C156" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>30</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45003</v>
+      </c>
+      <c r="C157" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>30</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45014</v>
+      </c>
+      <c r="C158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>31</v>
+      </c>
+      <c r="B159" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C159" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>31</v>
+      </c>
+      <c r="B160" s="2">
+        <v>44943</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>31</v>
+      </c>
+      <c r="B161" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C161" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>31</v>
+      </c>
+      <c r="B162" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C162" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>31</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44987</v>
+      </c>
+      <c r="C163" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>31</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45002</v>
+      </c>
+      <c r="C164" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>32</v>
+      </c>
+      <c r="B165" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C165" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>32</v>
+      </c>
+      <c r="B166" s="2">
+        <v>44948</v>
+      </c>
+      <c r="C166" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>32</v>
+      </c>
+      <c r="B167" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C167" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>32</v>
+      </c>
+      <c r="B168" s="2">
+        <v>44980</v>
+      </c>
+      <c r="C168" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>32</v>
+      </c>
+      <c r="B169" s="2">
+        <v>44998</v>
+      </c>
+      <c r="C169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>32</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45010</v>
+      </c>
+      <c r="C170" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>33</v>
+      </c>
+      <c r="B171" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>33</v>
+      </c>
+      <c r="B172" s="2">
+        <v>44940</v>
+      </c>
+      <c r="C172" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>33</v>
+      </c>
+      <c r="B173" s="2">
+        <v>44948</v>
+      </c>
+      <c r="C173" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>34</v>
+      </c>
+      <c r="B174" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C174" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>34</v>
+      </c>
+      <c r="B175" s="2">
+        <v>44935</v>
+      </c>
+      <c r="C175" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>34</v>
+      </c>
+      <c r="B176" s="2">
+        <v>44947</v>
+      </c>
+      <c r="C176" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>34</v>
+      </c>
+      <c r="B177" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C177" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>34</v>
+      </c>
+      <c r="B178" s="2">
+        <v>44971</v>
+      </c>
+      <c r="C178" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>34</v>
+      </c>
+      <c r="B179" s="2">
+        <v>44989</v>
+      </c>
+      <c r="C179" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>34</v>
+      </c>
+      <c r="B180" s="2">
+        <v>45016</v>
+      </c>
+      <c r="C180" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>35</v>
+      </c>
+      <c r="B181" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C181" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>35</v>
+      </c>
+      <c r="B182" s="2">
+        <v>44947</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>35</v>
+      </c>
+      <c r="B183" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C183" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>35</v>
+      </c>
+      <c r="B184" s="2">
+        <v>44997</v>
+      </c>
+      <c r="C184" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
         <v>36</v>
+      </c>
+      <c r="B185" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C185" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>36</v>
+      </c>
+      <c r="B186" s="2">
+        <v>44942</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>36</v>
+      </c>
+      <c r="B187" s="2">
+        <v>44965</v>
+      </c>
+      <c r="C187" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>37</v>
+      </c>
+      <c r="B188" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C188" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>37</v>
+      </c>
+      <c r="B189" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>37</v>
+      </c>
+      <c r="B190" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C190" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>38</v>
+      </c>
+      <c r="B191" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C191" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>38</v>
+      </c>
+      <c r="B192" s="2">
+        <v>44943</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>38</v>
+      </c>
+      <c r="B193" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C193" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>39</v>
+      </c>
+      <c r="B194" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C194" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>39</v>
+      </c>
+      <c r="B195" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>39</v>
+      </c>
+      <c r="B196" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C196" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>39</v>
+      </c>
+      <c r="B197" s="2">
+        <v>44974</v>
+      </c>
+      <c r="C197" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>40</v>
+      </c>
+      <c r="B198" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C198" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>40</v>
+      </c>
+      <c r="B199" s="2">
+        <v>44953</v>
+      </c>
+      <c r="C199" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>40</v>
+      </c>
+      <c r="B200" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C200" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>41</v>
+      </c>
+      <c r="B201" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C201" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>41</v>
+      </c>
+      <c r="B202" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C202" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>41</v>
+      </c>
+      <c r="B203" s="2">
+        <v>44965</v>
+      </c>
+      <c r="C203" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>41</v>
+      </c>
+      <c r="B204" s="2">
+        <v>44984</v>
+      </c>
+      <c r="C204" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>41</v>
+      </c>
+      <c r="B205" s="2">
+        <v>44997</v>
+      </c>
+      <c r="C205" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>41</v>
+      </c>
+      <c r="B206" s="2">
+        <v>45023</v>
+      </c>
+      <c r="C206" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>42</v>
+      </c>
+      <c r="B207" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C207" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>42</v>
+      </c>
+      <c r="B208" s="2">
+        <v>44943</v>
+      </c>
+      <c r="C208" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>42</v>
+      </c>
+      <c r="B209" s="2">
+        <v>44964</v>
+      </c>
+      <c r="C209" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>42</v>
+      </c>
+      <c r="B210" s="2">
+        <v>44984</v>
+      </c>
+      <c r="C210" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>43</v>
+      </c>
+      <c r="B211" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C211" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>43</v>
+      </c>
+      <c r="B212" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C212" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>43</v>
+      </c>
+      <c r="B213" s="2">
+        <v>44987</v>
+      </c>
+      <c r="C213" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>43</v>
+      </c>
+      <c r="B214" s="2">
+        <v>45009</v>
+      </c>
+      <c r="C214" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>44</v>
+      </c>
+      <c r="B215" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C215" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>44</v>
+      </c>
+      <c r="B216" s="2">
+        <v>44947</v>
+      </c>
+      <c r="C216" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>44</v>
+      </c>
+      <c r="B217" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C217" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>44</v>
+      </c>
+      <c r="B218" s="2">
+        <v>44974</v>
+      </c>
+      <c r="C218" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>45</v>
+      </c>
+      <c r="B219" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C219" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>45</v>
+      </c>
+      <c r="B220" s="2">
+        <v>44947</v>
+      </c>
+      <c r="C220" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>45</v>
+      </c>
+      <c r="B221" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C221" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>45</v>
+      </c>
+      <c r="B222" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C222" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>45</v>
+      </c>
+      <c r="B223" s="2">
+        <v>45019</v>
+      </c>
+      <c r="C223" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>46</v>
+      </c>
+      <c r="B224" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C224" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>46</v>
+      </c>
+      <c r="B225" s="2">
+        <v>44934</v>
+      </c>
+      <c r="C225" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>46</v>
+      </c>
+      <c r="B226" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C226" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>46</v>
+      </c>
+      <c r="B227" s="2">
+        <v>44974</v>
+      </c>
+      <c r="C227" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>46</v>
+      </c>
+      <c r="B228" s="2">
+        <v>44999</v>
+      </c>
+      <c r="C228" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>47</v>
+      </c>
+      <c r="B229" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C229" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>47</v>
+      </c>
+      <c r="B230" s="2">
+        <v>44942</v>
+      </c>
+      <c r="C230" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>47</v>
+      </c>
+      <c r="B231" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C231" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>48</v>
+      </c>
+      <c r="B232" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C232" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>48</v>
+      </c>
+      <c r="B233" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C233" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>48</v>
+      </c>
+      <c r="B234" s="2">
+        <v>44971</v>
+      </c>
+      <c r="C234" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>48</v>
+      </c>
+      <c r="B235" s="2">
+        <v>44996</v>
+      </c>
+      <c r="C235" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>48</v>
+      </c>
+      <c r="B236" s="2">
+        <v>45006</v>
+      </c>
+      <c r="C236" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>49</v>
+      </c>
+      <c r="B237" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C237" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>49</v>
+      </c>
+      <c r="B238" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>49</v>
+      </c>
+      <c r="B239" s="2">
+        <v>44973</v>
+      </c>
+      <c r="C239" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>49</v>
+      </c>
+      <c r="B240" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C240" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>50</v>
+      </c>
+      <c r="B241" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C241" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>50</v>
+      </c>
+      <c r="B242" s="2">
+        <v>44938</v>
+      </c>
+      <c r="C242" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>50</v>
+      </c>
+      <c r="B243" s="2">
+        <v>44964</v>
+      </c>
+      <c r="C243" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>51</v>
+      </c>
+      <c r="B244" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C244" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>51</v>
+      </c>
+      <c r="B245" s="2">
+        <v>44942</v>
+      </c>
+      <c r="C245" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>51</v>
+      </c>
+      <c r="B246" s="2">
+        <v>44968</v>
+      </c>
+      <c r="C246" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>51</v>
+      </c>
+      <c r="B247" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C247" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>51</v>
+      </c>
+      <c r="B248" s="2">
+        <v>45021</v>
+      </c>
+      <c r="C248" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>52</v>
+      </c>
+      <c r="B249" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C249" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>52</v>
+      </c>
+      <c r="B250" s="2">
+        <v>44937</v>
+      </c>
+      <c r="C250" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>52</v>
+      </c>
+      <c r="B251" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C251" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>52</v>
+      </c>
+      <c r="B252" s="2">
+        <v>44975</v>
+      </c>
+      <c r="C252" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>52</v>
+      </c>
+      <c r="B253" s="2">
+        <v>44990</v>
+      </c>
+      <c r="C253" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>52</v>
+      </c>
+      <c r="B254" s="2">
+        <v>45019</v>
+      </c>
+      <c r="C254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>53</v>
+      </c>
+      <c r="B255" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C255" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>53</v>
+      </c>
+      <c r="B256" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>53</v>
+      </c>
+      <c r="B257" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C257" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>54</v>
+      </c>
+      <c r="B258" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C258" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>54</v>
+      </c>
+      <c r="B259" s="2">
+        <v>44944</v>
+      </c>
+      <c r="C259" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>54</v>
+      </c>
+      <c r="B260" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C260" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>54</v>
+      </c>
+      <c r="B261" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C261" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>54</v>
+      </c>
+      <c r="B262" s="2">
+        <v>45009</v>
+      </c>
+      <c r="C262" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>54</v>
+      </c>
+      <c r="B263" s="2">
+        <v>45027</v>
+      </c>
+      <c r="C263" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>55</v>
+      </c>
+      <c r="B264" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C264" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>55</v>
+      </c>
+      <c r="B265" s="2">
+        <v>44944</v>
+      </c>
+      <c r="C265" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>55</v>
+      </c>
+      <c r="B266" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C266" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>55</v>
+      </c>
+      <c r="B267" s="2">
+        <v>44965</v>
+      </c>
+      <c r="C267" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>55</v>
+      </c>
+      <c r="B268" s="2">
+        <v>44982</v>
+      </c>
+      <c r="C268" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>55</v>
+      </c>
+      <c r="B269" s="2">
+        <v>45003</v>
+      </c>
+      <c r="C269" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>56</v>
+      </c>
+      <c r="B270" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C270" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>56</v>
+      </c>
+      <c r="B271" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C271" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>56</v>
+      </c>
+      <c r="B272" s="2">
+        <v>44973</v>
+      </c>
+      <c r="C272" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>56</v>
+      </c>
+      <c r="B273" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C273" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>56</v>
+      </c>
+      <c r="B274" s="2">
+        <v>45012</v>
+      </c>
+      <c r="C274" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>56</v>
+      </c>
+      <c r="B275" s="2">
+        <v>45032</v>
+      </c>
+      <c r="C275" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>56</v>
+      </c>
+      <c r="B276" s="2">
+        <v>45045</v>
+      </c>
+      <c r="C276" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>57</v>
+      </c>
+      <c r="B277" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C277" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>57</v>
+      </c>
+      <c r="B278" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C278" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>57</v>
+      </c>
+      <c r="B279" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C279" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>57</v>
+      </c>
+      <c r="B280" s="2">
+        <v>44983</v>
+      </c>
+      <c r="C280" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>58</v>
+      </c>
+      <c r="B281" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C281" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>58</v>
+      </c>
+      <c r="B282" s="2">
+        <v>44943</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>58</v>
+      </c>
+      <c r="B283" s="2">
+        <v>44958</v>
+      </c>
+      <c r="C283" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>58</v>
+      </c>
+      <c r="B284" s="2">
+        <v>44981</v>
+      </c>
+      <c r="C284" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>58</v>
+      </c>
+      <c r="B285" s="2">
+        <v>45010</v>
+      </c>
+      <c r="C285" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>59</v>
+      </c>
+      <c r="B286" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C286" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>59</v>
+      </c>
+      <c r="B287" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C287" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>59</v>
+      </c>
+      <c r="B288" s="2">
+        <v>44972</v>
+      </c>
+      <c r="C288" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>60</v>
+      </c>
+      <c r="B289" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C289" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>60</v>
+      </c>
+      <c r="B290" s="2">
+        <v>44949</v>
+      </c>
+      <c r="C290" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>60</v>
+      </c>
+      <c r="B291" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C291" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>60</v>
+      </c>
+      <c r="B292" s="2">
+        <v>44992</v>
+      </c>
+      <c r="C292" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>60</v>
+      </c>
+      <c r="B293" s="2">
+        <v>45001</v>
+      </c>
+      <c r="C293" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>60</v>
+      </c>
+      <c r="B294" s="2">
+        <v>45013</v>
+      </c>
+      <c r="C294" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>60</v>
+      </c>
+      <c r="B295" s="2">
+        <v>45025</v>
+      </c>
+      <c r="C295" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>61</v>
+      </c>
+      <c r="B296" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C296" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>61</v>
+      </c>
+      <c r="B297" s="2">
+        <v>44937</v>
+      </c>
+      <c r="C297" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>61</v>
+      </c>
+      <c r="B298" s="2">
+        <v>44948</v>
+      </c>
+      <c r="C298" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>62</v>
+      </c>
+      <c r="B299" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C299" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>62</v>
+      </c>
+      <c r="B300" s="2">
+        <v>44943</v>
+      </c>
+      <c r="C300" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>62</v>
+      </c>
+      <c r="B301" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C301" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>62</v>
+      </c>
+      <c r="B302" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C302" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>62</v>
+      </c>
+      <c r="B303" s="2">
+        <v>45003</v>
+      </c>
+      <c r="C303" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>62</v>
+      </c>
+      <c r="B304" s="2">
+        <v>45022</v>
+      </c>
+      <c r="C304" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>63</v>
+      </c>
+      <c r="B305" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C305" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>63</v>
+      </c>
+      <c r="B306" s="2">
+        <v>44941</v>
+      </c>
+      <c r="C306" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>63</v>
+      </c>
+      <c r="B307" s="2">
+        <v>44964</v>
+      </c>
+      <c r="C307" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
+        <v>63</v>
+      </c>
+      <c r="B308" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C308" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309">
+        <v>63</v>
+      </c>
+      <c r="B309" s="2">
+        <v>45009</v>
+      </c>
+      <c r="C309" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>64</v>
+      </c>
+      <c r="B310" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C310" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>64</v>
+      </c>
+      <c r="B311" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C311" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>64</v>
+      </c>
+      <c r="B312" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C312" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313">
+        <v>64</v>
+      </c>
+      <c r="B313" s="2">
+        <v>44994</v>
+      </c>
+      <c r="C313" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>64</v>
+      </c>
+      <c r="B314" s="2">
+        <v>45020</v>
+      </c>
+      <c r="C314" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315">
+        <v>64</v>
+      </c>
+      <c r="B315" s="2">
+        <v>45043</v>
+      </c>
+      <c r="C315" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316">
+        <v>65</v>
+      </c>
+      <c r="B316" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C316" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>65</v>
+      </c>
+      <c r="B317" s="2">
+        <v>44949</v>
+      </c>
+      <c r="C317" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318">
+        <v>65</v>
+      </c>
+      <c r="B318" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C318" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>65</v>
+      </c>
+      <c r="B319" s="2">
+        <v>44989</v>
+      </c>
+      <c r="C319" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>65</v>
+      </c>
+      <c r="B320" s="2">
+        <v>45006</v>
+      </c>
+      <c r="C320" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321">
+        <v>65</v>
+      </c>
+      <c r="B321" s="2">
+        <v>45019</v>
+      </c>
+      <c r="C321" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>66</v>
+      </c>
+      <c r="B322" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C322" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323">
+        <v>66</v>
+      </c>
+      <c r="B323" s="2">
+        <v>44940</v>
+      </c>
+      <c r="C323" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324">
+        <v>66</v>
+      </c>
+      <c r="B324" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C324" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325">
+        <v>66</v>
+      </c>
+      <c r="B325" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C325" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326">
+        <v>66</v>
+      </c>
+      <c r="B326" s="2">
+        <v>45015</v>
+      </c>
+      <c r="C326" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327">
+        <v>66</v>
+      </c>
+      <c r="B327" s="2">
+        <v>45045</v>
+      </c>
+      <c r="C327" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328">
+        <v>67</v>
+      </c>
+      <c r="B328" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C328" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>67</v>
+      </c>
+      <c r="B329" s="2">
+        <v>44940</v>
+      </c>
+      <c r="C329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>67</v>
+      </c>
+      <c r="B330" s="2">
+        <v>44965</v>
+      </c>
+      <c r="C330" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331">
+        <v>68</v>
+      </c>
+      <c r="B331" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C331" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>68</v>
+      </c>
+      <c r="B332" s="2">
+        <v>44941</v>
+      </c>
+      <c r="C332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333">
+        <v>68</v>
+      </c>
+      <c r="B333" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C333" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334">
+        <v>69</v>
+      </c>
+      <c r="B334" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C334" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>69</v>
+      </c>
+      <c r="B335" s="2">
+        <v>44934</v>
+      </c>
+      <c r="C335" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336">
+        <v>69</v>
+      </c>
+      <c r="B336" s="2">
+        <v>44964</v>
+      </c>
+      <c r="C336" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337">
+        <v>69</v>
+      </c>
+      <c r="B337" s="2">
+        <v>44987</v>
+      </c>
+      <c r="C337" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338">
+        <v>70</v>
+      </c>
+      <c r="B338" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C338" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339">
+        <v>70</v>
+      </c>
+      <c r="B339" s="2">
+        <v>44949</v>
+      </c>
+      <c r="C339" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340">
+        <v>70</v>
+      </c>
+      <c r="B340" s="2">
+        <v>44964</v>
+      </c>
+      <c r="C340" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341">
+        <v>70</v>
+      </c>
+      <c r="B341" s="2">
+        <v>44983</v>
+      </c>
+      <c r="C341" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342">
+        <v>71</v>
+      </c>
+      <c r="B342" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C342" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343">
+        <v>71</v>
+      </c>
+      <c r="B343" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C343" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344">
+        <v>71</v>
+      </c>
+      <c r="B344" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C344" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345">
+        <v>71</v>
+      </c>
+      <c r="B345" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C345" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346">
+        <v>72</v>
+      </c>
+      <c r="B346" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C346" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347">
+        <v>72</v>
+      </c>
+      <c r="B347" s="2">
+        <v>44942</v>
+      </c>
+      <c r="C347" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>72</v>
+      </c>
+      <c r="B348" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C348" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349">
+        <v>72</v>
+      </c>
+      <c r="B349" s="2">
+        <v>44974</v>
+      </c>
+      <c r="C349" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350">
+        <v>73</v>
+      </c>
+      <c r="B350" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C350" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351">
+        <v>73</v>
+      </c>
+      <c r="B351" s="2">
+        <v>44936</v>
+      </c>
+      <c r="C351" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352">
+        <v>73</v>
+      </c>
+      <c r="B352" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C352" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353">
+        <v>74</v>
+      </c>
+      <c r="B353" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C353" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354">
+        <v>74</v>
+      </c>
+      <c r="B354" s="2">
+        <v>44934</v>
+      </c>
+      <c r="C354" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355">
+        <v>74</v>
+      </c>
+      <c r="B355" s="2">
+        <v>44941</v>
+      </c>
+      <c r="C355" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356">
+        <v>74</v>
+      </c>
+      <c r="B356" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C356" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357">
+        <v>74</v>
+      </c>
+      <c r="B357" s="2">
+        <v>44982</v>
+      </c>
+      <c r="C357" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358">
+        <v>75</v>
+      </c>
+      <c r="B358" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C358" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359">
+        <v>75</v>
+      </c>
+      <c r="B359" s="2">
+        <v>44948</v>
+      </c>
+      <c r="C359" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360">
+        <v>75</v>
+      </c>
+      <c r="B360" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C360" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361">
+        <v>76</v>
+      </c>
+      <c r="B361" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C361" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
+        <v>76</v>
+      </c>
+      <c r="B362" s="2">
+        <v>44947</v>
+      </c>
+      <c r="C362" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363">
+        <v>76</v>
+      </c>
+      <c r="B363" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C363" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364">
+        <v>76</v>
+      </c>
+      <c r="B364" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C364" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365">
+        <v>77</v>
+      </c>
+      <c r="B365" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C365" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366">
+        <v>77</v>
+      </c>
+      <c r="B366" s="2">
+        <v>44952</v>
+      </c>
+      <c r="C366" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367">
+        <v>77</v>
+      </c>
+      <c r="B367" s="2">
+        <v>44973</v>
+      </c>
+      <c r="C367" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>77</v>
+      </c>
+      <c r="B368" s="2">
+        <v>44994</v>
+      </c>
+      <c r="C368" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>77</v>
+      </c>
+      <c r="B369" s="2">
+        <v>45001</v>
+      </c>
+      <c r="C369" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
+        <v>77</v>
+      </c>
+      <c r="B370" s="2">
+        <v>45023</v>
+      </c>
+      <c r="C370" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>77</v>
+      </c>
+      <c r="B371" s="2">
+        <v>45051</v>
+      </c>
+      <c r="C371" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>78</v>
+      </c>
+      <c r="B372" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C372" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <v>78</v>
+      </c>
+      <c r="B373" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C373" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>78</v>
+      </c>
+      <c r="B374" s="2">
+        <v>44972</v>
+      </c>
+      <c r="C374" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>78</v>
+      </c>
+      <c r="B375" s="2">
+        <v>44997</v>
+      </c>
+      <c r="C375" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376">
+        <v>78</v>
+      </c>
+      <c r="B376" s="2">
+        <v>45005</v>
+      </c>
+      <c r="C376" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377">
+        <v>78</v>
+      </c>
+      <c r="B377" s="2">
+        <v>45028</v>
+      </c>
+      <c r="C377" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>78</v>
+      </c>
+      <c r="B378" s="2">
+        <v>45045</v>
+      </c>
+      <c r="C378" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379">
+        <v>79</v>
+      </c>
+      <c r="B379" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C379" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380">
+        <v>79</v>
+      </c>
+      <c r="B380" s="2">
+        <v>44934</v>
+      </c>
+      <c r="C380" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381">
+        <v>79</v>
+      </c>
+      <c r="B381" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C381" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <v>79</v>
+      </c>
+      <c r="B382" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C382" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383">
+        <v>79</v>
+      </c>
+      <c r="B383" s="2">
+        <v>44983</v>
+      </c>
+      <c r="C383" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384">
+        <v>80</v>
+      </c>
+      <c r="B384" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C384" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>80</v>
+      </c>
+      <c r="B385" s="2">
+        <v>44946</v>
+      </c>
+      <c r="C385" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>80</v>
+      </c>
+      <c r="B386" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C386" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387">
+        <v>80</v>
+      </c>
+      <c r="B387" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C387" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>80</v>
+      </c>
+      <c r="B388" s="2">
+        <v>44994</v>
+      </c>
+      <c r="C388" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389">
+        <v>80</v>
+      </c>
+      <c r="B389" s="2">
+        <v>45022</v>
+      </c>
+      <c r="C389" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390">
+        <v>81</v>
+      </c>
+      <c r="B390" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C390" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391">
+        <v>81</v>
+      </c>
+      <c r="B391" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C391" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392">
+        <v>81</v>
+      </c>
+      <c r="B392" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C392" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393">
+        <v>81</v>
+      </c>
+      <c r="B393" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C393" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394">
+        <v>81</v>
+      </c>
+      <c r="B394" s="2">
+        <v>45008</v>
+      </c>
+      <c r="C394" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395">
+        <v>82</v>
+      </c>
+      <c r="B395" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C395" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396">
+        <v>82</v>
+      </c>
+      <c r="B396" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C396" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397">
+        <v>82</v>
+      </c>
+      <c r="B397" s="2">
+        <v>44971</v>
+      </c>
+      <c r="C397" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398">
+        <v>82</v>
+      </c>
+      <c r="B398" s="2">
+        <v>44985</v>
+      </c>
+      <c r="C398" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399">
+        <v>83</v>
+      </c>
+      <c r="B399" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C399" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400">
+        <v>83</v>
+      </c>
+      <c r="B400" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C400" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401">
+        <v>83</v>
+      </c>
+      <c r="B401" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C401" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402">
+        <v>83</v>
+      </c>
+      <c r="B402" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C402" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403">
+        <v>84</v>
+      </c>
+      <c r="B403" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C403" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404">
+        <v>84</v>
+      </c>
+      <c r="B404" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C404" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405">
+        <v>84</v>
+      </c>
+      <c r="B405" s="2">
+        <v>44980</v>
+      </c>
+      <c r="C405" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
+        <v>84</v>
+      </c>
+      <c r="B406" s="2">
+        <v>45006</v>
+      </c>
+      <c r="C406" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407">
+        <v>85</v>
+      </c>
+      <c r="B407" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C407" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408">
+        <v>85</v>
+      </c>
+      <c r="B408" s="2">
+        <v>44943</v>
+      </c>
+      <c r="C408" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409">
+        <v>85</v>
+      </c>
+      <c r="B409" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C409" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410">
+        <v>86</v>
+      </c>
+      <c r="B410" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C410" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411">
+        <v>86</v>
+      </c>
+      <c r="B411" s="2">
+        <v>44955</v>
+      </c>
+      <c r="C411" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412">
+        <v>86</v>
+      </c>
+      <c r="B412" s="2">
+        <v>44985</v>
+      </c>
+      <c r="C412" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
+        <v>86</v>
+      </c>
+      <c r="B413" s="2">
+        <v>45005</v>
+      </c>
+      <c r="C413" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414">
+        <v>86</v>
+      </c>
+      <c r="B414" s="2">
+        <v>45026</v>
+      </c>
+      <c r="C414" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415">
+        <v>86</v>
+      </c>
+      <c r="B415" s="2">
+        <v>45040</v>
+      </c>
+      <c r="C415" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416">
+        <v>87</v>
+      </c>
+      <c r="B416" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C416" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417">
+        <v>87</v>
+      </c>
+      <c r="B417" s="2">
+        <v>44948</v>
+      </c>
+      <c r="C417" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418">
+        <v>87</v>
+      </c>
+      <c r="B418" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C418" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419">
+        <v>87</v>
+      </c>
+      <c r="B419" s="2">
+        <v>44977</v>
+      </c>
+      <c r="C419" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420">
+        <v>88</v>
+      </c>
+      <c r="B420" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C420" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421">
+        <v>88</v>
+      </c>
+      <c r="B421" s="2">
+        <v>44947</v>
+      </c>
+      <c r="C421" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422">
+        <v>88</v>
+      </c>
+      <c r="B422" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C422" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423">
+        <v>88</v>
+      </c>
+      <c r="B423" s="2">
+        <v>44995</v>
+      </c>
+      <c r="C423" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424">
+        <v>88</v>
+      </c>
+      <c r="B424" s="2">
+        <v>45010</v>
+      </c>
+      <c r="C424" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425">
+        <v>89</v>
+      </c>
+      <c r="B425" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C425" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426">
+        <v>89</v>
+      </c>
+      <c r="B426" s="2">
+        <v>44938</v>
+      </c>
+      <c r="C426" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427">
+        <v>89</v>
+      </c>
+      <c r="B427" s="2">
+        <v>44966</v>
+      </c>
+      <c r="C427" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428">
+        <v>89</v>
+      </c>
+      <c r="B428" s="2">
+        <v>44979</v>
+      </c>
+      <c r="C428" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429">
+        <v>89</v>
+      </c>
+      <c r="B429" s="2">
+        <v>44995</v>
+      </c>
+      <c r="C429" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430">
+        <v>89</v>
+      </c>
+      <c r="B430" s="2">
+        <v>45006</v>
+      </c>
+      <c r="C430" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431">
+        <v>89</v>
+      </c>
+      <c r="B431" s="2">
+        <v>45020</v>
+      </c>
+      <c r="C431" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432">
+        <v>90</v>
+      </c>
+      <c r="B432" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C432" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433">
+        <v>90</v>
+      </c>
+      <c r="B433" s="2">
+        <v>44945</v>
+      </c>
+      <c r="C433" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434">
+        <v>90</v>
+      </c>
+      <c r="B434" s="2">
+        <v>44968</v>
+      </c>
+      <c r="C434" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435">
+        <v>91</v>
+      </c>
+      <c r="B435" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C435" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436">
+        <v>91</v>
+      </c>
+      <c r="B436" s="2">
+        <v>44938</v>
+      </c>
+      <c r="C436" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437">
+        <v>91</v>
+      </c>
+      <c r="B437" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C437" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438">
+        <v>91</v>
+      </c>
+      <c r="B438" s="2">
+        <v>44980</v>
+      </c>
+      <c r="C438" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439">
+        <v>91</v>
+      </c>
+      <c r="B439" s="2">
+        <v>44996</v>
+      </c>
+      <c r="C439" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440">
+        <v>92</v>
+      </c>
+      <c r="B440" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C440" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441">
+        <v>92</v>
+      </c>
+      <c r="B441" s="2">
+        <v>44948</v>
+      </c>
+      <c r="C441" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442">
+        <v>92</v>
+      </c>
+      <c r="B442" s="2">
+        <v>44959</v>
+      </c>
+      <c r="C442" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443">
+        <v>92</v>
+      </c>
+      <c r="B443" s="2">
+        <v>44987</v>
+      </c>
+      <c r="C443" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444">
+        <v>92</v>
+      </c>
+      <c r="B444" s="2">
+        <v>45017</v>
+      </c>
+      <c r="C444" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445">
+        <v>92</v>
+      </c>
+      <c r="B445" s="2">
+        <v>45033</v>
+      </c>
+      <c r="C445" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446">
+        <v>93</v>
+      </c>
+      <c r="B446" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C446" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447">
+        <v>93</v>
+      </c>
+      <c r="B447" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C447" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448">
+        <v>93</v>
+      </c>
+      <c r="B448" s="2">
+        <v>44981</v>
+      </c>
+      <c r="C448" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449">
+        <v>93</v>
+      </c>
+      <c r="B449" s="2">
+        <v>45005</v>
+      </c>
+      <c r="C449" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450">
+        <v>93</v>
+      </c>
+      <c r="B450" s="2">
+        <v>45019</v>
+      </c>
+      <c r="C450" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451">
+        <v>94</v>
+      </c>
+      <c r="B451" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C451" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452">
+        <v>94</v>
+      </c>
+      <c r="B452" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C452" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453">
+        <v>94</v>
+      </c>
+      <c r="B453" s="2">
+        <v>44981</v>
+      </c>
+      <c r="C453" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454">
+        <v>94</v>
+      </c>
+      <c r="B454" s="2">
+        <v>44989</v>
+      </c>
+      <c r="C454" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455">
+        <v>94</v>
+      </c>
+      <c r="B455" s="2">
+        <v>45000</v>
+      </c>
+      <c r="C455" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456">
+        <v>94</v>
+      </c>
+      <c r="B456" s="2">
+        <v>45011</v>
+      </c>
+      <c r="C456" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>94</v>
+      </c>
+      <c r="B457" s="2">
+        <v>45023</v>
+      </c>
+      <c r="C457" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458">
+        <v>95</v>
+      </c>
+      <c r="B458" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C458" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459">
+        <v>95</v>
+      </c>
+      <c r="B459" s="2">
+        <v>44939</v>
+      </c>
+      <c r="C459" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460">
+        <v>95</v>
+      </c>
+      <c r="B460" s="2">
+        <v>44946</v>
+      </c>
+      <c r="C460" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461">
+        <v>95</v>
+      </c>
+      <c r="B461" s="2">
+        <v>44959</v>
+      </c>
+      <c r="C461" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462">
+        <v>95</v>
+      </c>
+      <c r="B462" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C462" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463">
+        <v>95</v>
+      </c>
+      <c r="B463" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C463" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464">
+        <v>96</v>
+      </c>
+      <c r="B464" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C464" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465">
+        <v>96</v>
+      </c>
+      <c r="B465" s="2">
+        <v>44938</v>
+      </c>
+      <c r="C465" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466">
+        <v>96</v>
+      </c>
+      <c r="B466" s="2">
+        <v>44959</v>
+      </c>
+      <c r="C466" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467">
+        <v>96</v>
+      </c>
+      <c r="B467" s="2">
+        <v>44978</v>
+      </c>
+      <c r="C467" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468">
+        <v>96</v>
+      </c>
+      <c r="B468" s="2">
+        <v>45002</v>
+      </c>
+      <c r="C468" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469">
+        <v>97</v>
+      </c>
+      <c r="B469" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C469" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470">
+        <v>97</v>
+      </c>
+      <c r="B470" s="2">
+        <v>44945</v>
+      </c>
+      <c r="C470" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471">
+        <v>97</v>
+      </c>
+      <c r="B471" s="2">
+        <v>44965</v>
+      </c>
+      <c r="C471" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472">
+        <v>98</v>
+      </c>
+      <c r="B472" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C472" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473">
+        <v>98</v>
+      </c>
+      <c r="B473" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C473" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474">
+        <v>98</v>
+      </c>
+      <c r="B474" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C474" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475">
+        <v>98</v>
+      </c>
+      <c r="B475" s="2">
+        <v>45000</v>
+      </c>
+      <c r="C475" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476">
+        <v>98</v>
+      </c>
+      <c r="B476" s="2">
+        <v>45007</v>
+      </c>
+      <c r="C476" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477">
+        <v>98</v>
+      </c>
+      <c r="B477" s="2">
+        <v>45023</v>
+      </c>
+      <c r="C477" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478">
+        <v>98</v>
+      </c>
+      <c r="B478" s="2">
+        <v>45053</v>
+      </c>
+      <c r="C478" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>99</v>
+      </c>
+      <c r="B479" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C479" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480">
+        <v>99</v>
+      </c>
+      <c r="B480" s="2">
+        <v>44940</v>
+      </c>
+      <c r="C480" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481">
+        <v>99</v>
+      </c>
+      <c r="B481" s="2">
+        <v>44952</v>
+      </c>
+      <c r="C481" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482">
+        <v>99</v>
+      </c>
+      <c r="B482" s="2">
+        <v>44968</v>
+      </c>
+      <c r="C482" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483">
+        <v>99</v>
+      </c>
+      <c r="B483" s="2">
+        <v>44992</v>
+      </c>
+      <c r="C483" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484">
+        <v>99</v>
+      </c>
+      <c r="B484" s="2">
+        <v>45011</v>
+      </c>
+      <c r="C484" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485">
+        <v>99</v>
+      </c>
+      <c r="B485" s="2">
+        <v>45023</v>
+      </c>
+      <c r="C485" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486">
+        <v>100</v>
+      </c>
+      <c r="B486" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C486" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487">
+        <v>100</v>
+      </c>
+      <c r="B487" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C487" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488">
+        <v>100</v>
+      </c>
+      <c r="B488" s="2">
+        <v>44974</v>
+      </c>
+      <c r="C488" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489">
+        <v>100</v>
+      </c>
+      <c r="B489" s="2">
+        <v>44999</v>
+      </c>
+      <c r="C489" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490">
+        <v>100</v>
+      </c>
+      <c r="B490" s="2">
+        <v>45022</v>
+      </c>
+      <c r="C490" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentaro/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32B273B-7951-DD47-8F96-1471F4BB009F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB5918-3063-1F4A-A65A-15757E5B7A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,141 @@
   </si>
   <si>
     <t>手術記録：腹腔鏡下子宮全摘施行。手術時間340分、出血量728ml。</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、漿液性卵巣癌、Stage IVCと診断。 高度肥満（BMI 31.6）</t>
+  </si>
+  <si>
+    <t>"漿液性卵巣癌"</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮全摘の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間321分、出血量767ml。</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮体がん、Stage IIAと診断。 腎機能低下（Cr 1.8 mg/dl）</t>
+  </si>
+  <si>
+    <t>"子宮体がん"</t>
+  </si>
+  <si>
+    <t>治療方針：開腹全摘術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間162分、出血量164ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 8.2%）あり</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮体癌、Stage IIIBと診断。</t>
+  </si>
+  <si>
+    <t>"子宮体癌"</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間140分、出血量948ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDTX+CBDCAを開始。</t>
+  </si>
+  <si>
+    <t>組織診の結果、卵巣腫瘍、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>N/A
+解析:
+- 2023-01-01 の記述では「卵巣腫瘍」ではなく「卵巣がん」という診断名が明確に示されており、ステージは IVA とされています。
+- その後の記述では、具体的な組織型（例：漿液性、粘液性など）や正式な診断名（例：卵巣腺癌）が見当たりません。
+- そのため、がんの正式な診断名が特定できないため、N/A と判断しました。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間131分、出血量622ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 9.8%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTC療法を開始。 高度肥満（BMI 34.7）</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly PTXを開始。</t>
+  </si>
+  <si>
+    <t>生検の結果、卵巣腫瘍、Stage IIAと診断。</t>
+  </si>
+  <si>
+    <t>"N/A"
+解析:
+- 2023-01-01 のエントリで "卵巣腫瘍" と診断されていますが、がんの正式な診断名（例：漿液性卵巣癌）とは言えません。
+- その後のエントリでは、治療や化学療法の記録が記載されていますが、がんの具体的な診断名が明確に示されていません。
+したがって、与えられた情報からは正式ながんの診断名を抽出することができず、"N/A" となります。</t>
+  </si>
+  <si>
+    <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮摘出術施行。手術時間127分、出血量68ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 7.6%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+  </si>
+  <si>
+    <t>術後化学療法として毎週パクリタキセルを開始。</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮体部癌、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中</t>
+  </si>
+  <si>
+    <t>"子宮体部癌"</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間327分、出血量565ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 高度肥満（BMI 39.8）</t>
+  </si>
+  <si>
+    <t>病理組織診断の結果、卵巣腫瘍、Stage ICと診断。 腎機能低下（Cr 2.8 mg/dl）</t>
+  </si>
+  <si>
+    <t>N/A
+テキスト中には具体的ながんの診断名（例：卵巣がん、子宮体癌、肺腺癌など）が明記されていません。卵巣腫瘍と診断されたとありますが、具体的ながんの診断名としては不十分なため、N/Aとします。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間147分、出血量426ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 53%）あり</t>
+  </si>
+  <si>
+    <t>術後化学療法としてTCを開始。</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮頚癌、Stage IVAと診断。</t>
+  </si>
+  <si>
+    <t>"子宮頚癌"</t>
+  </si>
+  <si>
+    <t>治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 46%）あり</t>
+  </si>
+  <si>
+    <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間303分、出血量621ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDC療法を開始。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてwPTXを開始。</t>
   </si>
 </sst>
 </file>
@@ -440,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD492"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -588,6 +723,552 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44973</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44978</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44989</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44942</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44960</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44982</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44994</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45006</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45032</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44978</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44995</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45008</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44939</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44942</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44973</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44952</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45015</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45036</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentaro/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB5918-3063-1F4A-A65A-15757E5B7A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5527A-B8C1-5140-846F-8AC6AEA29566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -31,15 +31,111 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析結果_がん診断名抽出</t>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-02-12</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-03-04</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-03-21</t>
+  </si>
+  <si>
+    <t>2023-04-16</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-30</t>
+  </si>
+  <si>
+    <t>2023-04-20</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
   </si>
   <si>
     <t>組織診の結果、体部類内膜癌、Stage IVBと診断。 抗凝固薬（イグザレルト）服用中</t>
   </si>
   <si>
-    <t>"子宮体部類内膜癌"</t>
-  </si>
-  <si>
     <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
   </si>
   <si>
@@ -58,9 +154,6 @@
     <t>内膜組織診の結果、明細胞癌、Stage IIIAと診断。</t>
   </si>
   <si>
-    <t>"明細胞癌"</t>
-  </si>
-  <si>
     <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
   </si>
   <si>
@@ -70,9 +163,6 @@
     <t>病理組織診断の結果、漿液性卵巣癌、Stage IVCと診断。 高度肥満（BMI 31.6）</t>
   </si>
   <si>
-    <t>"漿液性卵巣癌"</t>
-  </si>
-  <si>
     <t>治療方針：開腹子宮全摘の方針。</t>
   </si>
   <si>
@@ -82,9 +172,6 @@
     <t>組織診の結果、子宮体がん、Stage IIAと診断。 腎機能低下（Cr 1.8 mg/dl）</t>
   </si>
   <si>
-    <t>"子宮体がん"</t>
-  </si>
-  <si>
     <t>治療方針：開腹全摘術の方針。</t>
   </si>
   <si>
@@ -97,9 +184,6 @@
     <t>生検の結果、子宮体癌、Stage IIIBと診断。</t>
   </si>
   <si>
-    <t>"子宮体癌"</t>
-  </si>
-  <si>
     <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間140分、出血量948ml。</t>
   </si>
   <si>
@@ -109,13 +193,6 @@
     <t>組織診の結果、卵巣腫瘍、Stage IVAと診断。</t>
   </si>
   <si>
-    <t>N/A
-解析:
-- 2023-01-01 の記述では「卵巣腫瘍」ではなく「卵巣がん」という診断名が明確に示されており、ステージは IVA とされています。
-- その後の記述では、具体的な組織型（例：漿液性、粘液性など）や正式な診断名（例：卵巣腺癌）が見当たりません。
-- そのため、がんの正式な診断名が特定できないため、N/A と判断しました。</t>
-  </si>
-  <si>
     <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間131分、出血量622ml。</t>
   </si>
   <si>
@@ -131,13 +208,6 @@
     <t>生検の結果、卵巣腫瘍、Stage IIAと診断。</t>
   </si>
   <si>
-    <t>"N/A"
-解析:
-- 2023-01-01 のエントリで "卵巣腫瘍" と診断されていますが、がんの正式な診断名（例：漿液性卵巣癌）とは言えません。
-- その後のエントリでは、治療や化学療法の記録が記載されていますが、がんの具体的な診断名が明確に示されていません。
-したがって、与えられた情報からは正式ながんの診断名を抽出することができず、"N/A" となります。</t>
-  </si>
-  <si>
     <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
   </si>
   <si>
@@ -156,9 +226,6 @@
     <t>生検の結果、子宮体部癌、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中</t>
   </si>
   <si>
-    <t>"子宮体部癌"</t>
-  </si>
-  <si>
     <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
   </si>
   <si>
@@ -171,10 +238,6 @@
     <t>病理組織診断の結果、卵巣腫瘍、Stage ICと診断。 腎機能低下（Cr 2.8 mg/dl）</t>
   </si>
   <si>
-    <t>N/A
-テキスト中には具体的ながんの診断名（例：卵巣がん、子宮体癌、肺腺癌など）が明記されていません。卵巣腫瘍と診断されたとありますが、具体的ながんの診断名としては不十分なため、N/Aとします。</t>
-  </si>
-  <si>
     <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間147分、出血量426ml。</t>
   </si>
   <si>
@@ -187,9 +250,6 @@
     <t>組織診の結果、子宮頚癌、Stage IVAと診断。</t>
   </si>
   <si>
-    <t>"子宮頚癌"</t>
-  </si>
-  <si>
     <t>治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 46%）あり</t>
   </si>
   <si>
@@ -200,15 +260,18 @@
   </si>
   <si>
     <t>術後化学療法としてwPTXを開始。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間124分、出血量161ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてwPTXを開始。 抗凝固薬（エリキュース）服用中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -220,9 +283,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
@@ -267,12 +331,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -291,9 +354,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +394,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -365,6 +428,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -399,9 +463,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,15 +640,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD490"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,684 +658,581 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>44927</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>44937</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>44967</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>44977</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
-        <v>44990</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
-        <v>44998</v>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
-        <v>44927</v>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
-        <v>44956</v>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>44975</v>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="2">
-        <v>44927</v>
+      <c r="B11" t="s">
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="2">
-        <v>44954</v>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
-        <v>44973</v>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
-        <v>44927</v>
+      <c r="B14" t="s">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
-        <v>44950</v>
+      <c r="B15" t="s">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
-        <v>44969</v>
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="2">
-        <v>44978</v>
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
-        <v>44927</v>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="2">
-        <v>44951</v>
+      <c r="B19" t="s">
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="2">
-        <v>44967</v>
+      <c r="B20" t="s">
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="2">
-        <v>44989</v>
+      <c r="B21" t="s">
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
-        <v>44927</v>
+      <c r="B22" t="s">
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="2">
-        <v>44942</v>
+      <c r="B23" t="s">
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>6</v>
       </c>
-      <c r="B24" s="2">
-        <v>44960</v>
+      <c r="B24" t="s">
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="2">
-        <v>44982</v>
+      <c r="B25" t="s">
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="2">
-        <v>44994</v>
+      <c r="B26" t="s">
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>6</v>
       </c>
-      <c r="B27" s="2">
-        <v>45006</v>
+      <c r="B27" t="s">
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" s="2">
-        <v>45032</v>
+      <c r="B28" t="s">
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" s="2">
-        <v>44927</v>
+      <c r="B29" t="s">
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>7</v>
       </c>
-      <c r="B30" s="2">
-        <v>44954</v>
+      <c r="B30" t="s">
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" s="2">
-        <v>44967</v>
+      <c r="B31" t="s">
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
-        <v>44978</v>
+      <c r="B32" t="s">
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" s="2">
-        <v>44995</v>
+      <c r="B33" t="s">
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="2">
-        <v>45008</v>
+      <c r="B34" t="s">
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35" s="2">
-        <v>44927</v>
+      <c r="B35" t="s">
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" s="2">
-        <v>44939</v>
+      <c r="B36" t="s">
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" s="2">
-        <v>44962</v>
+      <c r="B37" t="s">
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" s="2">
-        <v>44976</v>
+      <c r="B38" t="s">
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>9</v>
       </c>
-      <c r="B39" s="2">
-        <v>44927</v>
+      <c r="B39" t="s">
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>9</v>
       </c>
-      <c r="B40" s="2">
-        <v>44942</v>
+      <c r="B40" t="s">
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>9</v>
       </c>
-      <c r="B41" s="2">
-        <v>44954</v>
+      <c r="B41" t="s">
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>9</v>
       </c>
-      <c r="B42" s="2">
-        <v>44973</v>
+      <c r="B42" t="s">
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>9</v>
       </c>
-      <c r="B43" s="2">
-        <v>44988</v>
+      <c r="B43" t="s">
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="B44" s="2">
-        <v>44927</v>
+      <c r="B44" t="s">
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>10</v>
       </c>
-      <c r="B45" s="2">
-        <v>44952</v>
+      <c r="B45" t="s">
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>10</v>
       </c>
-      <c r="B46" s="2">
-        <v>44969</v>
+      <c r="B46" t="s">
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>10</v>
       </c>
-      <c r="B47" s="2">
-        <v>44991</v>
+      <c r="B47" t="s">
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>10</v>
       </c>
-      <c r="B48" s="2">
-        <v>45015</v>
+      <c r="B48" t="s">
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>10</v>
       </c>
-      <c r="B49" s="2">
-        <v>45036</v>
+      <c r="B49" t="s">
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentaro/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCD0E51-6519-2247-BF1C-C5E3196D909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D8455-345D-1346-9F28-151CD05C6E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -31,39 +31,15 @@
     <t>text</t>
   </si>
   <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-03-05</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-02-18</t>
-  </si>
-  <si>
-    <t>2023-01-28</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
+    <t>分析結果_がん診断名抽出</t>
   </si>
   <si>
     <t>組織診の結果、体部類内膜癌、Stage IVBと診断。 抗凝固薬（イグザレルト）服用中</t>
   </si>
   <si>
+    <t>"子宮体部類内膜癌"</t>
+  </si>
+  <si>
     <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
   </si>
   <si>
@@ -82,6 +58,9 @@
     <t>内膜組織診の結果、明細胞癌、Stage IIIAと診断。</t>
   </si>
   <si>
+    <t>"明細胞癌"</t>
+  </si>
+  <si>
     <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
   </si>
   <si>
@@ -91,16 +70,49 @@
     <t>病理組織診断の結果、漿液性卵巣癌、Stage IVCと診断。 高度肥満（BMI 31.6）</t>
   </si>
   <si>
+    <t>"漿液性卵巣癌"</t>
+  </si>
+  <si>
     <t>治療方針：開腹子宮全摘の方針。</t>
   </si>
   <si>
     <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間321分、出血量767ml。</t>
+  </si>
+  <si>
+    <t>組織診の結果、子宮体がん、Stage IIAと診断。 腎機能低下（Cr 1.8 mg/dl）</t>
+  </si>
+  <si>
+    <t>"子宮体がん"</t>
+  </si>
+  <si>
+    <t>治療方針：開腹全摘術の方針。</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間162分、出血量164ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 8.2%）あり</t>
+  </si>
+  <si>
+    <t>生検の結果、子宮体癌、Stage IIIBと診断。</t>
+  </si>
+  <si>
+    <t>"子宮体癌"</t>
+  </si>
+  <si>
+    <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間140分、出血量948ml。</t>
+  </si>
+  <si>
+    <t>術後化学療法としてDTX+CBDCAを開始。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -112,10 +124,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -160,11 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -183,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,7 +234,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -257,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -292,10 +302,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A14:XFD53"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,141 +496,292 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="2">
+        <v>44927</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3" s="2">
+        <v>44937</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4" s="2">
+        <v>44967</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" s="2">
+        <v>44977</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B6" s="2">
+        <v>44990</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B7" s="2">
+        <v>44998</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8" s="2">
+        <v>44927</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9" s="2">
+        <v>44956</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10" s="2">
+        <v>44975</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11" s="2">
+        <v>44927</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B12" s="2">
+        <v>44954</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
+      <c r="B13" s="2">
+        <v>44973</v>
       </c>
       <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44969</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44978</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44989</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>生検の結果、子宮頸がん、Stage IVCと診断。</t>
+          <t>組織診断の結果、子宮頚癌、Stage IVAと診断。 糖尿病（HbA1c 7.8%）あり</t>
         </is>
       </c>
     </row>
@@ -471,12 +471,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
         </is>
       </c>
     </row>
@@ -486,12 +486,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間217分、出血量344ml。</t>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間313分、出血量680ml。</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>組織診の結果、明細胞癌、Stage IAと診断。</t>
+          <t>組織診の結果、子宮内膜癌、Stage ICと診断。</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>治療方針：開腹子宮全摘の方針。 糖尿病（HbA1c 8.4%）あり</t>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>手術記録：腹腔鏡下全摘術施行。手術時間257分、出血量459ml。</t>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間310分、出血量796ml。</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-03-25</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+          <t>術後化学療法としてDCを開始。</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+          <t>術後化学療法としてDTX+CBDCAを開始。 腎機能低下（Cr 2.2 mg/dl）</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-04-29</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>術後化学療法としてDTX+CBDCAを開始。 腎機能低下（Cr 1.7 mg/dl）</t>
+          <t>組織診断の結果、子宮体部癌、Stage IIAと診断。</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>病理組織診断の結果、子宮頸部癌、Stage IIICと診断。</t>
+          <t>治療方針：開腹子宮全摘の方針。</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>治療方針：開腹子宮全摘出術の方針。</t>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間136分、出血量337ml。</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>手術記録：開腹子宮全摘施行。手術時間330分、出血量925ml。</t>
+          <t>術後化学療法としてTC療法を開始。</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,3372 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮頸がん、Stage IIAと診断。 心機能低下（EF 43%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間244分、出血量565ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 45%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-02-19</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 高度肥満（BMI 34.2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>組織生検の結果、卵巣腫瘍、Stage IIIAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間331分、出血量629ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>組織診の結果、明細胞癌、Stage ICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間160分、出血量201ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 高度肥満（BMI 30.7）</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>組織診断の結果、高異型度漿液性癌、Stage IBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間248分、出血量651ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮頚癌、Stage IBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 糖尿病（HbA1c 7.3%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間188分、出血量898ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>8</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、卵巣腫瘍、Stage IIIBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。 心機能低下（EF 34%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間202分、出血量507ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、明細胞癌、Stage IIIAと診断。 腎機能低下（Cr 2.8 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間314分、出血量922ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2023-03-05</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 腎機能低下（Cr 2.7 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2023-03-20</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 糖尿病（HbA1c 10.0%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>組織生検の結果、明細胞癌、Stage IBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間194分、出血量797ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2023-03-12</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。 糖尿病（HbA1c 8.7%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>12</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮頚癌、Stage IVBと診断。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>12</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>12</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間269分、出血量328ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>12</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 心機能低下（EF 42%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>13</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、明細胞癌、Stage IIIAと診断。 心機能低下（EF 44%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>13</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>13</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間184分、出血量836ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>14</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮体部類内膜癌、Stage IIIBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>14</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。 高度肥満（BMI 37.5）</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>14</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間131分、出血量453ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>14</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>15</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>組織診の結果、明細胞癌、Stage IIAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>15</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>15</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間183分、出血量419ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>16</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸癌、Stage IICと診断。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>16</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間159分、出血量680ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>16</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>16</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>16</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2023-04-22</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>17</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮体部癌、Stage ICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>17</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。 心機能低下（EF 30%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>17</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間166分、出血量989ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>17</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 心機能低下（EF 40%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>18</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮体がん、Stage IIIAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>18</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>18</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間137分、出血量406ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>19</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>組織診断の結果、卵巣癌、Stage ICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>19</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。 糖尿病（HbA1c 9.3%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>19</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2023-02-18</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間342分、出血量762ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>19</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>20</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮頸部癌、Stage IICと診断。 高度肥満（BMI 37.2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2023-01-10</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間262分、出血量998ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>2023-03-04</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 9.2%）あり</t>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。 心機能低下（EF 51%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>21</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮頸部癌、Stage IBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>21</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>21</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間138分、出血量60ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>21</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>22</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、漿液性卵巣癌、Stage IVCと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>22</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2023-01-10</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>22</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間224分、出血量706ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>22</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>22</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>23</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>組織診断の結果、高異型度漿液性癌、Stage IICと診断。 糖尿病（HbA1c 7.8%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>23</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2023-01-08</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>23</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間166分、出血量420ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>23</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>23</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>24</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体がん、Stage IVAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>24</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>24</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間300分、出血量414ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>24</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>24</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>25</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮内膜癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>25</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘の方針。 心機能低下（EF 48%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>25</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間288分、出血量832ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>25</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 糖尿病（HbA1c 7.8%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>25</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>26</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、卵巣がん、Stage IIICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>26</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>26</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間359分、出血量845ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>26</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2023-03-04</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>27</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、卵巣癌、Stage IIBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>27</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>27</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間202分、出血量488ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>28</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮体部癌、Stage IVBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>28</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。 糖尿病（HbA1c 8.2%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>28</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間279分、出血量503ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>28</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 心機能低下（EF 33%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>28</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>28</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2023-03-18</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.4 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>28</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>29</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>組織診断の結果、卵巣腫瘍、Stage IVCと診断。 糖尿病（HbA1c 7.1%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>29</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>29</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間359分、出血量519ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>29</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 高度肥満（BMI 39.7）</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>29</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 高度肥満（BMI 36.0）</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>29</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 心機能低下（EF 46%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>30</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体部類内膜癌、Stage IAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>30</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。 糖尿病（HbA1c 9.4%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>30</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間182分、出血量949ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>30</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.0 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>30</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>31</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>組織診断の結果、高異型度漿液性癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>31</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2023-01-08</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>31</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間346分、出血量410ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>32</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮体がん、Stage IVAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>32</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>32</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間309分、出血量326ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>32</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>32</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>32</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。 高度肥満（BMI 32.5）</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>33</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、卵巣腫瘍、Stage IICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>33</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 2.6 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>33</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間202分、出血量594ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>34</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸がん、Stage IBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>34</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>34</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間173分、出血量787ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>34</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2023-02-26</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>34</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>35</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>生検の結果、頚部腺癌、Stage IVAと診断。 糖尿病（HbA1c 8.4%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>35</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。 高度肥満（BMI 39.8）</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>35</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間132分、出血量318ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>35</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>35</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>35</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>36</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>組織生検の結果、卵巣腫瘍、Stage IBと診断。 腎機能低下（Cr 2.6 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>36</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。 高度肥満（BMI 39.1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>36</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間262分、出血量968ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>36</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2023-03-20</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>36</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>36</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>37</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸がん、Stage IIAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>37</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>37</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間334分、出血量838ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>37</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2023-03-04</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>38</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、卵巣がん、Stage IIIBと診断。 腎機能低下（Cr 2.9 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>38</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>38</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間354分、出血量630ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>38</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。 高度肥満（BMI 35.9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>38</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 心機能低下（EF 41%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>38</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2023-04-29</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>38</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>39</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>組織診の結果、頚部腺癌、Stage IIAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>39</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>39</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間134分、出血量164ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>39</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>39</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>39</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。 心機能低下（EF 52%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>40</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮頸癌、Stage IICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>40</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>40</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2023-02-18</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間147分、出血量61ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>40</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。 糖尿病（HbA1c 8.1%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>40</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>40</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>41</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮体癌、Stage ICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>41</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>41</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間265分、出血量997ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>41</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。 腎機能低下（Cr 2.2 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>41</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>41</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>42</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体部類内膜癌、Stage IVBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>42</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2023-01-08</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>42</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間145分、出血量772ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>42</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 高度肥満（BMI 37.7）</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>43</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>組織診の結果、体部類内膜癌、Stage IVBと診断。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>43</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>43</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間208分、出血量732ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>43</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>44</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮頚癌、Stage IIIAと診断。 腎機能低下（Cr 2.4 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>44</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。 糖尿病（HbA1c 7.8%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>44</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間338分、出血量907ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>44</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>44</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>44</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。 心機能低下（EF 32%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>45</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>組織生検の結果、明細胞癌、Stage ICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>45</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>45</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間133分、出血量700ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>45</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>46</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮頚癌、Stage IVCと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>46</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>46</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間338分、出血量788ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>46</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>47</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮内膜癌、Stage ICと診断。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>47</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。 腎機能低下（Cr 1.6 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>47</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間209分、出血量665ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>47</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>47</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 糖尿病（HbA1c 9.4%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>48</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>生検の結果、卵巣癌、Stage IVCと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>48</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>48</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間149分、出血量163ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>48</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>48</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2023-03-26</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。 腎機能低下（Cr 2.7 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>48</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>49</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、卵巣腫瘍、Stage IAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>49</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2023-01-12</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>49</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間152分、出血量741ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>49</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2023-02-21</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>50</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮体部類内膜癌、Stage IAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>50</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>50</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間357分、出血量631ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>50</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>50</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
         </is>
       </c>
     </row>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,138 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentaro/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E9AC0-E3DA-B940-95DD-2E6F4A613475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>内膜組織診の結果、体部類内膜癌、Stage IAと診断。 糖尿病（HbA1c 8.8%）あり</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
-  </si>
-  <si>
-    <t>2023-01-29</t>
-  </si>
-  <si>
-    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間325分、出血量514ml。</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>術後化学療法としてDCを開始。</t>
-  </si>
-  <si>
-    <t>2023-02-25</t>
-  </si>
-  <si>
-    <t>術後化学療法としてPTX+CBDCAを開始。</t>
-  </si>
-  <si>
-    <t>2023-03-10</t>
-  </si>
-  <si>
-    <t>術後化学療法としてDC療法を開始。</t>
-  </si>
-  <si>
-    <t>内膜組織診の結果、子宮体部癌、Stage ICと診断。</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>治療方針：開腹子宮摘出術の方針。</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>手術記録：開腹子宮全摘施行。手術時間217分、出血量143ml。</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>術後化学療法としてDTX+CBDCAを開始。</t>
-  </si>
-  <si>
-    <t>2023-03-03</t>
-  </si>
-  <si>
-    <t>術後化学療法として毎週パクリタキセルを開始。</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>術後化学療法としてweekly PTXを開始。</t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -471,171 +420,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、漿液性卵巣癌、Stage IIIAと診断。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 1.9 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間242分、出血量275ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>組織診断の結果、卵巣腫瘍、Stage IICと診断。 高度肥満（BMI 36.2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間255分、出血量853ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-03-04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>組織診断の結果、卵巣癌、Stage IBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間226分、出血量72ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-03-03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-04-29</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 47%）あり</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>